--- a/natmiOut/OldD7/LR-pairs_lrc2p/Pltp-Abca1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Pltp-Abca1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.0357595595352</v>
+        <v>14.72626766666667</v>
       </c>
       <c r="H2">
-        <v>13.0357595595352</v>
+        <v>44.178803</v>
       </c>
       <c r="I2">
-        <v>0.08947921009560082</v>
+        <v>0.08850173745156495</v>
       </c>
       <c r="J2">
-        <v>0.08947921009560082</v>
+        <v>0.08850173745156498</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.1394717251831</v>
+        <v>28.06266266666667</v>
       </c>
       <c r="N2">
-        <v>27.1394717251831</v>
+        <v>84.187988</v>
       </c>
       <c r="O2">
-        <v>0.1418454612885264</v>
+        <v>0.137091999334172</v>
       </c>
       <c r="P2">
-        <v>0.1418454612885264</v>
+        <v>0.1370919993341719</v>
       </c>
       <c r="Q2">
-        <v>353.7836279822909</v>
+        <v>413.2582818687071</v>
       </c>
       <c r="R2">
-        <v>353.7836279822909</v>
+        <v>3719.324536818364</v>
       </c>
       <c r="S2">
-        <v>0.01269221983174347</v>
+        <v>0.012132880131783</v>
       </c>
       <c r="T2">
-        <v>0.01269221983174347</v>
+        <v>0.01213288013178301</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.0357595595352</v>
+        <v>14.72626766666667</v>
       </c>
       <c r="H3">
-        <v>13.0357595595352</v>
+        <v>44.178803</v>
       </c>
       <c r="I3">
-        <v>0.08947921009560082</v>
+        <v>0.08850173745156495</v>
       </c>
       <c r="J3">
-        <v>0.08947921009560082</v>
+        <v>0.08850173745156498</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>41.2377928049934</v>
+        <v>41.27966333333334</v>
       </c>
       <c r="N3">
-        <v>41.2377928049934</v>
+        <v>123.83899</v>
       </c>
       <c r="O3">
-        <v>0.2155308622870956</v>
+        <v>0.2016598227127667</v>
       </c>
       <c r="P3">
-        <v>0.2155308622870956</v>
+        <v>0.2016598227127666</v>
       </c>
       <c r="Q3">
-        <v>537.5659517718245</v>
+        <v>607.8953714365523</v>
       </c>
       <c r="R3">
-        <v>537.5659517718245</v>
+        <v>5471.058342928971</v>
       </c>
       <c r="S3">
-        <v>0.01928553130867304</v>
+        <v>0.01784724468425441</v>
       </c>
       <c r="T3">
-        <v>0.01928553130867304</v>
+        <v>0.01784724468425441</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.0357595595352</v>
+        <v>14.72626766666667</v>
       </c>
       <c r="H4">
-        <v>13.0357595595352</v>
+        <v>44.178803</v>
       </c>
       <c r="I4">
-        <v>0.08947921009560082</v>
+        <v>0.08850173745156495</v>
       </c>
       <c r="J4">
-        <v>0.08947921009560082</v>
+        <v>0.08850173745156498</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.993245869482</v>
+        <v>127.2218856666667</v>
       </c>
       <c r="N4">
-        <v>115.993245869482</v>
+        <v>381.665657</v>
       </c>
       <c r="O4">
-        <v>0.6062430261471544</v>
+        <v>0.6215056237633366</v>
       </c>
       <c r="P4">
-        <v>0.6062430261471544</v>
+        <v>0.6215056237633366</v>
       </c>
       <c r="Q4">
-        <v>1512.060063684617</v>
+        <v>1873.503541385397</v>
       </c>
       <c r="R4">
-        <v>1512.060063684617</v>
+        <v>16861.53187246857</v>
       </c>
       <c r="S4">
-        <v>0.05424614710561405</v>
+        <v>0.05500432753897393</v>
       </c>
       <c r="T4">
-        <v>0.05424614710561405</v>
+        <v>0.05500432753897394</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.0357595595352</v>
+        <v>14.72626766666667</v>
       </c>
       <c r="H5">
-        <v>13.0357595595352</v>
+        <v>44.178803</v>
       </c>
       <c r="I5">
-        <v>0.08947921009560082</v>
+        <v>0.08850173745156495</v>
       </c>
       <c r="J5">
-        <v>0.08947921009560082</v>
+        <v>0.08850173745156498</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.9607558858307</v>
+        <v>8.135280666666667</v>
       </c>
       <c r="N5">
-        <v>6.9607558858307</v>
+        <v>24.405842</v>
       </c>
       <c r="O5">
-        <v>0.03638065027722347</v>
+        <v>0.03974255418972485</v>
       </c>
       <c r="P5">
-        <v>0.03638065027722347</v>
+        <v>0.03974255418972485</v>
       </c>
       <c r="Q5">
-        <v>90.73874008030845</v>
+        <v>119.8023206407918</v>
       </c>
       <c r="R5">
-        <v>90.73874008030845</v>
+        <v>1078.220885767126</v>
       </c>
       <c r="S5">
-        <v>0.003255311849570257</v>
+        <v>0.003517285096553622</v>
       </c>
       <c r="T5">
-        <v>0.003255311849570257</v>
+        <v>0.003517285096553623</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.041260967006</v>
+        <v>13.135456</v>
       </c>
       <c r="H6">
-        <v>13.041260967006</v>
+        <v>39.406368</v>
       </c>
       <c r="I6">
-        <v>0.08951697249775722</v>
+        <v>0.07894129758689367</v>
       </c>
       <c r="J6">
-        <v>0.08951697249775722</v>
+        <v>0.07894129758689368</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.1394717251831</v>
+        <v>28.06266266666667</v>
       </c>
       <c r="N6">
-        <v>27.1394717251831</v>
+        <v>84.187988</v>
       </c>
       <c r="O6">
-        <v>0.1418454612885264</v>
+        <v>0.137091999334172</v>
       </c>
       <c r="P6">
-        <v>0.1418454612885264</v>
+        <v>0.1370919993341719</v>
       </c>
       <c r="Q6">
-        <v>353.9329332747934</v>
+        <v>368.6158707008427</v>
       </c>
       <c r="R6">
-        <v>353.9329332747934</v>
+        <v>3317.542836307584</v>
       </c>
       <c r="S6">
-        <v>0.01269757625709671</v>
+        <v>0.0108222203162211</v>
       </c>
       <c r="T6">
-        <v>0.01269757625709671</v>
+        <v>0.0108222203162211</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.041260967006</v>
+        <v>13.135456</v>
       </c>
       <c r="H7">
-        <v>13.041260967006</v>
+        <v>39.406368</v>
       </c>
       <c r="I7">
-        <v>0.08951697249775722</v>
+        <v>0.07894129758689367</v>
       </c>
       <c r="J7">
-        <v>0.08951697249775722</v>
+        <v>0.07894129758689368</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.2377928049934</v>
+        <v>41.27966333333334</v>
       </c>
       <c r="N7">
-        <v>41.2377928049934</v>
+        <v>123.83899</v>
       </c>
       <c r="O7">
-        <v>0.2155308622870956</v>
+        <v>0.2016598227127667</v>
       </c>
       <c r="P7">
-        <v>0.2155308622870956</v>
+        <v>0.2016598227127666</v>
       </c>
       <c r="Q7">
-        <v>537.7928176732413</v>
+        <v>542.2272014098133</v>
       </c>
       <c r="R7">
-        <v>537.7928176732413</v>
+        <v>4880.04481268832</v>
       </c>
       <c r="S7">
-        <v>0.01929367027177184</v>
+        <v>0.01591928807608873</v>
       </c>
       <c r="T7">
-        <v>0.01929367027177184</v>
+        <v>0.01591928807608873</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.041260967006</v>
+        <v>13.135456</v>
       </c>
       <c r="H8">
-        <v>13.041260967006</v>
+        <v>39.406368</v>
       </c>
       <c r="I8">
-        <v>0.08951697249775722</v>
+        <v>0.07894129758689367</v>
       </c>
       <c r="J8">
-        <v>0.08951697249775722</v>
+        <v>0.07894129758689368</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>115.993245869482</v>
+        <v>127.2218856666667</v>
       </c>
       <c r="N8">
-        <v>115.993245869482</v>
+        <v>381.665657</v>
       </c>
       <c r="O8">
-        <v>0.6062430261471544</v>
+        <v>0.6215056237633366</v>
       </c>
       <c r="P8">
-        <v>0.6062430261471544</v>
+        <v>0.6215056237633366</v>
       </c>
       <c r="Q8">
-        <v>1512.698189794005</v>
+        <v>1671.117481411531</v>
       </c>
       <c r="R8">
-        <v>1512.698189794005</v>
+        <v>15040.05733270378</v>
       </c>
       <c r="S8">
-        <v>0.05426904029857194</v>
+        <v>0.04906246039742953</v>
       </c>
       <c r="T8">
-        <v>0.05426904029857194</v>
+        <v>0.04906246039742954</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.041260967006</v>
+        <v>13.135456</v>
       </c>
       <c r="H9">
-        <v>13.041260967006</v>
+        <v>39.406368</v>
       </c>
       <c r="I9">
-        <v>0.08951697249775722</v>
+        <v>0.07894129758689367</v>
       </c>
       <c r="J9">
-        <v>0.08951697249775722</v>
+        <v>0.07894129758689368</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.9607558858307</v>
+        <v>8.135280666666667</v>
       </c>
       <c r="N9">
-        <v>6.9607558858307</v>
+        <v>24.405842</v>
       </c>
       <c r="O9">
-        <v>0.03638065027722347</v>
+        <v>0.03974255418972485</v>
       </c>
       <c r="P9">
-        <v>0.03638065027722347</v>
+        <v>0.03974255418972485</v>
       </c>
       <c r="Q9">
-        <v>90.77703403474118</v>
+        <v>106.8606212446507</v>
       </c>
       <c r="R9">
-        <v>90.77703403474118</v>
+        <v>961.745591201856</v>
       </c>
       <c r="S9">
-        <v>0.003256685670316737</v>
+        <v>0.003137328797154317</v>
       </c>
       <c r="T9">
-        <v>0.003256685670316737</v>
+        <v>0.003137328797154318</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>117.285446408849</v>
+        <v>134.3676426666667</v>
       </c>
       <c r="H10">
-        <v>117.285446408849</v>
+        <v>403.102928</v>
       </c>
       <c r="I10">
-        <v>0.8050631075576484</v>
+        <v>0.807520962028172</v>
       </c>
       <c r="J10">
-        <v>0.8050631075576484</v>
+        <v>0.8075209620281721</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.1394717251831</v>
+        <v>28.06266266666667</v>
       </c>
       <c r="N10">
-        <v>27.1394717251831</v>
+        <v>84.187988</v>
       </c>
       <c r="O10">
-        <v>0.1418454612885264</v>
+        <v>0.137091999334172</v>
       </c>
       <c r="P10">
-        <v>0.1418454612885264</v>
+        <v>0.1370919993341719</v>
       </c>
       <c r="Q10">
-        <v>3183.065056588435</v>
+        <v>3770.713829469874</v>
       </c>
       <c r="R10">
-        <v>3183.065056588435</v>
+        <v>33936.42446522887</v>
       </c>
       <c r="S10">
-        <v>0.1141945478578892</v>
+        <v>0.1107046631886961</v>
       </c>
       <c r="T10">
-        <v>0.1141945478578892</v>
+        <v>0.1107046631886961</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>117.285446408849</v>
+        <v>134.3676426666667</v>
       </c>
       <c r="H11">
-        <v>117.285446408849</v>
+        <v>403.102928</v>
       </c>
       <c r="I11">
-        <v>0.8050631075576484</v>
+        <v>0.807520962028172</v>
       </c>
       <c r="J11">
-        <v>0.8050631075576484</v>
+        <v>0.8075209620281721</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.2377928049934</v>
+        <v>41.27966333333334</v>
       </c>
       <c r="N11">
-        <v>41.2377928049934</v>
+        <v>123.83899</v>
       </c>
       <c r="O11">
-        <v>0.2155308622870956</v>
+        <v>0.2016598227127667</v>
       </c>
       <c r="P11">
-        <v>0.2155308622870956</v>
+        <v>0.2016598227127666</v>
       </c>
       <c r="Q11">
-        <v>4836.592938049272</v>
+        <v>5546.651052173637</v>
       </c>
       <c r="R11">
-        <v>4836.592938049272</v>
+        <v>49919.85946956273</v>
       </c>
       <c r="S11">
-        <v>0.1735159457674288</v>
+        <v>0.162844534039444</v>
       </c>
       <c r="T11">
-        <v>0.1735159457674288</v>
+        <v>0.162844534039444</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>117.285446408849</v>
+        <v>134.3676426666667</v>
       </c>
       <c r="H12">
-        <v>117.285446408849</v>
+        <v>403.102928</v>
       </c>
       <c r="I12">
-        <v>0.8050631075576484</v>
+        <v>0.807520962028172</v>
       </c>
       <c r="J12">
-        <v>0.8050631075576484</v>
+        <v>0.8075209620281721</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>115.993245869482</v>
+        <v>127.2218856666667</v>
       </c>
       <c r="N12">
-        <v>115.993245869482</v>
+        <v>381.665657</v>
       </c>
       <c r="O12">
-        <v>0.6062430261471544</v>
+        <v>0.6215056237633366</v>
       </c>
       <c r="P12">
-        <v>0.6062430261471544</v>
+        <v>0.6215056237633366</v>
       </c>
       <c r="Q12">
-        <v>13604.31962221358</v>
+        <v>17094.50487263819</v>
       </c>
       <c r="R12">
-        <v>13604.31962221358</v>
+        <v>153850.5438537437</v>
       </c>
       <c r="S12">
-        <v>0.4880638945651808</v>
+        <v>0.5018788192072887</v>
       </c>
       <c r="T12">
-        <v>0.4880638945651808</v>
+        <v>0.5018788192072888</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>117.285446408849</v>
+        <v>134.3676426666667</v>
       </c>
       <c r="H13">
-        <v>117.285446408849</v>
+        <v>403.102928</v>
       </c>
       <c r="I13">
-        <v>0.8050631075576484</v>
+        <v>0.807520962028172</v>
       </c>
       <c r="J13">
-        <v>0.8050631075576484</v>
+        <v>0.8075209620281721</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.9607558858307</v>
+        <v>8.135280666666667</v>
       </c>
       <c r="N13">
-        <v>6.9607558858307</v>
+        <v>24.405842</v>
       </c>
       <c r="O13">
-        <v>0.03638065027722347</v>
+        <v>0.03974255418972485</v>
       </c>
       <c r="P13">
-        <v>0.03638065027722347</v>
+        <v>0.03974255418972485</v>
       </c>
       <c r="Q13">
-        <v>816.3953614126768</v>
+        <v>1093.118485611709</v>
       </c>
       <c r="R13">
-        <v>816.3953614126768</v>
+        <v>9838.066370505376</v>
       </c>
       <c r="S13">
-        <v>0.02928871936714956</v>
+        <v>0.03209294559274337</v>
       </c>
       <c r="T13">
-        <v>0.02928871936714956</v>
+        <v>0.03209294559274338</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.32231890042145</v>
+        <v>4.165871666666667</v>
       </c>
       <c r="H14">
-        <v>2.32231890042145</v>
+        <v>12.497615</v>
       </c>
       <c r="I14">
-        <v>0.01594070984899363</v>
+        <v>0.0250360029333692</v>
       </c>
       <c r="J14">
-        <v>0.01594070984899363</v>
+        <v>0.02503600293336921</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>27.1394717251831</v>
+        <v>28.06266266666667</v>
       </c>
       <c r="N14">
-        <v>27.1394717251831</v>
+        <v>84.187988</v>
       </c>
       <c r="O14">
-        <v>0.1418454612885264</v>
+        <v>0.137091999334172</v>
       </c>
       <c r="P14">
-        <v>0.1418454612885264</v>
+        <v>0.1370919993341719</v>
       </c>
       <c r="Q14">
-        <v>63.02650813484625</v>
+        <v>116.9054512942911</v>
       </c>
       <c r="R14">
-        <v>63.02650813484625</v>
+        <v>1052.14906164862</v>
       </c>
       <c r="S14">
-        <v>0.002261117341797058</v>
+        <v>0.003432235697471777</v>
       </c>
       <c r="T14">
-        <v>0.002261117341797058</v>
+        <v>0.003432235697471778</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.32231890042145</v>
+        <v>4.165871666666667</v>
       </c>
       <c r="H15">
-        <v>2.32231890042145</v>
+        <v>12.497615</v>
       </c>
       <c r="I15">
-        <v>0.01594070984899363</v>
+        <v>0.0250360029333692</v>
       </c>
       <c r="J15">
-        <v>0.01594070984899363</v>
+        <v>0.02503600293336921</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.2377928049934</v>
+        <v>41.27966333333334</v>
       </c>
       <c r="N15">
-        <v>41.2377928049934</v>
+        <v>123.83899</v>
       </c>
       <c r="O15">
-        <v>0.2155308622870956</v>
+        <v>0.2016598227127667</v>
       </c>
       <c r="P15">
-        <v>0.2155308622870956</v>
+        <v>0.2016598227127666</v>
       </c>
       <c r="Q15">
-        <v>95.76730564269985</v>
+        <v>171.9657798898723</v>
       </c>
       <c r="R15">
-        <v>95.76730564269985</v>
+        <v>1547.69201900885</v>
       </c>
       <c r="S15">
-        <v>0.003435714939221995</v>
+        <v>0.005048755912979539</v>
       </c>
       <c r="T15">
-        <v>0.003435714939221995</v>
+        <v>0.005048755912979539</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.32231890042145</v>
+        <v>4.165871666666667</v>
       </c>
       <c r="H16">
-        <v>2.32231890042145</v>
+        <v>12.497615</v>
       </c>
       <c r="I16">
-        <v>0.01594070984899363</v>
+        <v>0.0250360029333692</v>
       </c>
       <c r="J16">
-        <v>0.01594070984899363</v>
+        <v>0.02503600293336921</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>115.993245869482</v>
+        <v>127.2218856666667</v>
       </c>
       <c r="N16">
-        <v>115.993245869482</v>
+        <v>381.665657</v>
       </c>
       <c r="O16">
-        <v>0.6062430261471544</v>
+        <v>0.6215056237633366</v>
       </c>
       <c r="P16">
-        <v>0.6062430261471544</v>
+        <v>0.6215056237633366</v>
       </c>
       <c r="Q16">
-        <v>269.3733072039303</v>
+        <v>529.9900488786728</v>
       </c>
       <c r="R16">
-        <v>269.3733072039303</v>
+        <v>4769.910439908056</v>
       </c>
       <c r="S16">
-        <v>0.009663944177787646</v>
+        <v>0.01556001661964435</v>
       </c>
       <c r="T16">
-        <v>0.009663944177787646</v>
+        <v>0.01556001661964435</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.32231890042145</v>
+        <v>4.165871666666667</v>
       </c>
       <c r="H17">
-        <v>2.32231890042145</v>
+        <v>12.497615</v>
       </c>
       <c r="I17">
-        <v>0.01594070984899363</v>
+        <v>0.0250360029333692</v>
       </c>
       <c r="J17">
-        <v>0.01594070984899363</v>
+        <v>0.02503600293336921</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.9607558858307</v>
+        <v>8.135280666666667</v>
       </c>
       <c r="N17">
-        <v>6.9607558858307</v>
+        <v>24.405842</v>
       </c>
       <c r="O17">
-        <v>0.03638065027722347</v>
+        <v>0.03974255418972485</v>
       </c>
       <c r="P17">
-        <v>0.03638065027722347</v>
+        <v>0.03974255418972485</v>
       </c>
       <c r="Q17">
-        <v>16.16509495488449</v>
+        <v>33.89053522964778</v>
       </c>
       <c r="R17">
-        <v>16.16509495488449</v>
+        <v>305.01481706683</v>
       </c>
       <c r="S17">
-        <v>0.000579933390186929</v>
+        <v>0.0009949947032735359</v>
       </c>
       <c r="T17">
-        <v>0.000579933390186929</v>
+        <v>0.0009949947032735361</v>
       </c>
     </row>
   </sheetData>
